--- a/excel_files/demo/insert_multiple_faculty.xlsx
+++ b/excel_files/demo/insert_multiple_faculty.xlsx
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -425,9 +425,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -441,6 +438,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -770,7 +776,7 @@
       <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="15" t="s">
@@ -794,15 +800,15 @@
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
@@ -812,24 +818,24 @@
       <c r="I2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
@@ -867,14 +873,14 @@
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
@@ -912,14 +918,14 @@
     <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
@@ -957,14 +963,14 @@
     <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1002,14 +1008,14 @@
     <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1047,14 +1053,14 @@
     <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1092,14 +1098,14 @@
     <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1137,14 +1143,14 @@
     <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1182,14 +1188,14 @@
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1227,14 +1233,14 @@
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1272,14 +1278,14 @@
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1317,14 +1323,14 @@
     <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1362,14 +1368,14 @@
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1407,14 +1413,14 @@
     <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1452,14 +1458,14 @@
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
@@ -1497,14 +1503,14 @@
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1542,14 +1548,14 @@
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="24"/>
       <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1587,14 +1593,14 @@
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="24"/>
       <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1632,14 +1638,14 @@
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1677,14 +1683,14 @@
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1722,14 +1728,14 @@
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
@@ -1767,14 +1773,14 @@
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
@@ -1812,14 +1818,14 @@
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
@@ -1857,14 +1863,14 @@
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
@@ -1902,14 +1908,14 @@
     <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="C27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
@@ -1947,14 +1953,14 @@
     <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="C28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="F28" s="24"/>
       <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1992,14 +1998,14 @@
     <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
@@ -2037,14 +2043,14 @@
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
@@ -2082,14 +2088,14 @@
     <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="C31" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="F31" s="24"/>
       <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
@@ -2127,14 +2133,14 @@
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
@@ -2172,14 +2178,14 @@
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="C33" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
@@ -2217,14 +2223,14 @@
     <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
@@ -2262,14 +2268,14 @@
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="C35" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
@@ -2307,14 +2313,14 @@
     <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
@@ -2352,14 +2358,14 @@
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="C37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
@@ -2397,14 +2403,14 @@
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
-      <c r="C38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="C38" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
@@ -2442,14 +2448,14 @@
     <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="C39" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
@@ -2487,14 +2493,14 @@
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
@@ -2532,14 +2538,14 @@
     <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="C41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
@@ -2577,14 +2583,14 @@
     <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
-      <c r="C42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="C42" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
@@ -2622,14 +2628,14 @@
     <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="C43" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="F43" s="24"/>
       <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
@@ -2667,14 +2673,14 @@
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="C44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
@@ -2712,14 +2718,14 @@
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="19" t="s">
+      <c r="C45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
@@ -2757,14 +2763,14 @@
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="19" t="s">
+      <c r="C46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
@@ -2801,15 +2807,15 @@
     </row>
     <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="19" t="s">
+      <c r="B47" s="20"/>
+      <c r="C47" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
@@ -2847,14 +2853,14 @@
     <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="19" t="s">
+      <c r="C48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
@@ -2892,14 +2898,14 @@
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="19" t="s">
+      <c r="C49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
@@ -2937,14 +2943,14 @@
     <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="19" t="s">
+      <c r="C50" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
@@ -2982,14 +2988,14 @@
     <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="23" t="s">
+      <c r="C51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="13" t="s">
         <v>9</v>
       </c>
